--- a/x.xlsx
+++ b/x.xlsx
@@ -369,7 +369,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
